--- a/examSchedule_1_сем.xlsx
+++ b/examSchedule_1_сем.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRR07\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\home\Kurs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1091CDE8-A795-403F-B645-BBFB8D241CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F053FCD-E0A9-4D7C-8DE0-539A09585151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29280" yWindow="480" windowWidth="27000" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29715" yWindow="915" windowWidth="27000" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="examSchedule" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
       <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
